--- a/biology/Zoologie/Asthenosoma_varium/Asthenosoma_varium.xlsx
+++ b/biology/Zoologie/Asthenosoma_varium/Asthenosoma_varium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oursin de feu, Oursin-cuir venimeux
 L’oursin de feu (Asthenosoma varium) est une espèce d'oursin régulier tropical de la famille des Echinothuriidae, caractérisé par ses couleurs particulièrement vives, ses épines modifiées et sa venimosité.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand oursin régulier, circulaire et légèrement aplati dorsalement ; son test (coquille) est flexible, et s'aplatit à la mort de l'animal[1]. Cet oursin se reconnaît à sa robe exceptionnellement colorée : si les couleurs varient énormément d'un individu à l'autre, on y retrouve presque toujours des dominantes de rouge, de jaune et d'orange donnant une impression enflammée, rehaussée de points bleus iridescents[2]. Il est considéré comme un des plus beaux oursins qui soient[3]. L'oursin de feu porte deux types d'épines (« radioles ») bien différents : l'ensemble du test est recouvert d'épines de défense, courtes, fines et extrêmement pointues, et recouvertes de glandes à venin globulaires et translucides qui font penser à des perles enfilées plus ou moins colorées, et dont les dernières, de plus en plus sombres, ont des reflets bleutés. Ceux des plaques ambulacraires sont plus longs que ceux des plaques interambulacraires. Le second type de radioles est celles disposées sur la face orale, qui servent à la locomotion : elles sont longues, de couleurs claires et légèrement incurvées avec une pointe très émoussée, et forment une sorte de couronne sur la face orale (inférieure) de l'animal. Les radioles, souvent regroupées en « faisceaux », laissent généralement apparaître dix méridiens dénudés en forme d'étoile. Le test (coquille) de cet oursin peut dépasser 20 cm[2] ; plus il est gros et plus sa forme est aplatie (alors que les juvéniles sont quasiment sphériques).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand oursin régulier, circulaire et légèrement aplati dorsalement ; son test (coquille) est flexible, et s'aplatit à la mort de l'animal. Cet oursin se reconnaît à sa robe exceptionnellement colorée : si les couleurs varient énormément d'un individu à l'autre, on y retrouve presque toujours des dominantes de rouge, de jaune et d'orange donnant une impression enflammée, rehaussée de points bleus iridescents. Il est considéré comme un des plus beaux oursins qui soient. L'oursin de feu porte deux types d'épines (« radioles ») bien différents : l'ensemble du test est recouvert d'épines de défense, courtes, fines et extrêmement pointues, et recouvertes de glandes à venin globulaires et translucides qui font penser à des perles enfilées plus ou moins colorées, et dont les dernières, de plus en plus sombres, ont des reflets bleutés. Ceux des plaques ambulacraires sont plus longs que ceux des plaques interambulacraires. Le second type de radioles est celles disposées sur la face orale, qui servent à la locomotion : elles sont longues, de couleurs claires et légèrement incurvées avec une pointe très émoussée, et forment une sorte de couronne sur la face orale (inférieure) de l'animal. Les radioles, souvent regroupées en « faisceaux », laissent généralement apparaître dix méridiens dénudés en forme d'étoile. Le test (coquille) de cet oursin peut dépasser 20 cm ; plus il est gros et plus sa forme est aplatie (alors que les juvéniles sont quasiment sphériques).
 			Spécimen caractéristique.
 			Gros-plan sur les radioles et leurs capsules à venin.
 			Test desséché.
@@ -547,10 +561,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'oursin de feu se rencontre dans les écosystèmes coralliens de l'indo-pacifique tropical, de l'Indonésie au Japon et à la Nouvelle-Calédonie[3].
-On le rencontre dans les herbiers ou sur les récifs de corail, de 3 à 70 m de profondeur (mais surtout à partir de 15 m), parfois jusqu'à 170 m de profondeur[4] ; les individus vivant plus profondément sont plus clairs, voire décolorés[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oursin de feu se rencontre dans les écosystèmes coralliens de l'indo-pacifique tropical, de l'Indonésie au Japon et à la Nouvelle-Calédonie.
+On le rencontre dans les herbiers ou sur les récifs de corail, de 3 à 70 m de profondeur (mais surtout à partir de 15 m), parfois jusqu'à 170 m de profondeur ; les individus vivant plus profondément sont plus clairs, voire décolorés.
 </t>
         </is>
       </c>
@@ -579,11 +595,13 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un brouteur à tendance omnivore et détritivore : il se nourrit d'organismes encroûtants, et notamment d'éponges sur les coraux morts[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un brouteur à tendance omnivore et détritivore : il se nourrit d'organismes encroûtants, et notamment d'éponges sur les coraux morts.
 La reproduction est gonochorique, et mâles et femelles relâchent leurs gamètes en même temps en pleine eau, où œufs puis larves vont évoluer parmi le plancton pendant quelques semaines avant de se fixer.
-Certains petits invertébrés peuvent vivre en symbiose ou en commensalisme avec l'oursin rouge, comme les crevettes Periclimenes colemani[2] et Allopontonia brockii, ou le crabe-zèbre Zebrida adamsii[3], qui nettoient l'oursin en échange de l'excellente protection offerte par ses épines venimeuses. La plupart de ces espèces arborent des robes à pois imitant les capsules à venin des oursins de feu.
+Certains petits invertébrés peuvent vivre en symbiose ou en commensalisme avec l'oursin rouge, comme les crevettes Periclimenes colemani et Allopontonia brockii, ou le crabe-zèbre Zebrida adamsii, qui nettoient l'oursin en échange de l'excellente protection offerte par ses épines venimeuses. La plupart de ces espèces arborent des robes à pois imitant les capsules à venin des oursins de feu.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">World Register of Marine Species                               (7 février 2014)[5] décrit deux sous-espèces : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">World Register of Marine Species                               (7 février 2014) décrit deux sous-espèces : 
 sous-espèce Asthenosoma varium album Mortensen, 1934
 sous-espèce Asthenosoma varium varium Grube, 1868 </t>
         </is>
@@ -644,11 +664,13 @@
           <t>L'oursin de feu et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La profondeur à laquelle vit cet oursin, sa taille et ses couleurs limitent les risques de marcher dessus par inadvertance, contrairement à certains de ses cousins. C'est une chance, car son venin est très puissant et délivre des piqûres extrêmement douloureuses, bien que non-létales[6].
-Cet oursin est aussi apprécié en aquariophilie marine tropicale pour ses belles couleurs ; cependant son alimentation et sa venimosité le rendent rare chez les particuliers[2]. Il n'a aucune valeur marchande et ne semble être consommé dans aucun pays de son aire de répartition.
-La beauté de ce somptueux oursin multicolore en fait également un sujet de choix pour les photographes sous-marins[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La profondeur à laquelle vit cet oursin, sa taille et ses couleurs limitent les risques de marcher dessus par inadvertance, contrairement à certains de ses cousins. C'est une chance, car son venin est très puissant et délivre des piqûres extrêmement douloureuses, bien que non-létales.
+Cet oursin est aussi apprécié en aquariophilie marine tropicale pour ses belles couleurs ; cependant son alimentation et sa venimosité le rendent rare chez les particuliers. Il n'a aucune valeur marchande et ne semble être consommé dans aucun pays de son aire de répartition.
+La beauté de ce somptueux oursin multicolore en fait également un sujet de choix pour les photographes sous-marins.
 </t>
         </is>
       </c>
